--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="142">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -86,12 +86,24 @@
     <t xml:space="preserve">Boa_pun</t>
   </si>
   <si>
+    <t xml:space="preserve">Boa_alb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den_jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lep_pod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Franco</t>
   </si>
   <si>
     <t xml:space="preserve">INCT16</t>
   </si>
   <si>
+    <t xml:space="preserve">Campo Grande</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191103_194500</t>
   </si>
   <si>
@@ -101,12 +113,42 @@
     <t xml:space="preserve">baixa</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191104_174500</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191104_183000</t>
   </si>
   <si>
     <t xml:space="preserve">INCT16_20191108_194500</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191108_204500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191108_214500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191108_224500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191108_234500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191109_004500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de avião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191109_014500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191109_024500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191109_034500</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191111_174500</t>
   </si>
   <si>
@@ -116,13 +158,40 @@
     <t xml:space="preserve">INCT16_20191111_203000</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191111_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191111_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191111_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191112_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191112_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191112_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191112_033000</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191112_191500</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191113_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de chuva e vento</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191113_181500</t>
   </si>
   <si>
-    <t xml:space="preserve">Chuva </t>
+    <t xml:space="preserve">Ruído de chuva </t>
   </si>
   <si>
     <t xml:space="preserve">INCT16_20191128_191500</t>
@@ -137,15 +206,111 @@
     <t xml:space="preserve">Ruído de corrente elétrica (?)</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191128_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191128_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191128_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191129_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191129_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191129_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191129_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191129_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas aves </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191129_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_180000</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191207_190000</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191207_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191207_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191209_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191211_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191211_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191211_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191211_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191211_181500</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191211_191500</t>
   </si>
   <si>
     <t xml:space="preserve">INCT16_20191211_201500</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191211_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191211_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191211_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191213_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191213_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191213_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191213_033000</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191213_183000</t>
   </si>
   <si>
@@ -170,6 +335,18 @@
     <t xml:space="preserve">INCT16_20191231_200000</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20200107_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200107_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de vento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200111_191500</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
   </si>
   <si>
@@ -261,6 +438,15 @@
   </si>
   <si>
     <t xml:space="preserve">Boana punctata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boana albopunctata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dendropsophus jimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leptodactylus podicipinus</t>
   </si>
 </sst>
 </file>
@@ -398,7 +584,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,10 +662,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,34 +746,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U1048576"/>
+  <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="0.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="1.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="0.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.61"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="8.78"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="10.83"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,22 +844,34 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
@@ -717,31 +915,43 @@
       <c r="U2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="V2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>0</v>
@@ -774,45 +984,57 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
         <v>0</v>
@@ -833,45 +1055,57 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>0</v>
@@ -892,48 +1126,60 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1" t="n">
         <v>0</v>
@@ -951,51 +1197,63 @@
         <v>0</v>
       </c>
       <c r="U6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1" t="n">
         <v>0</v>
@@ -1010,34 +1268,46 @@
         <v>0</v>
       </c>
       <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J8" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" s="1" t="n">
         <v>1</v>
       </c>
@@ -1048,16 +1318,16 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="n">
         <v>0</v>
@@ -1069,45 +1339,54 @@
         <v>0</v>
       </c>
       <c r="U8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>0</v>
@@ -1128,48 +1407,60 @@
         <v>0</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>0</v>
@@ -1178,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
         <v>0</v>
@@ -1193,36 +1484,45 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>1</v>
@@ -1240,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
         <v>0</v>
@@ -1252,39 +1552,51 @@
         <v>0</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>0</v>
@@ -1314,48 +1626,60 @@
         <v>0</v>
       </c>
       <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1" t="n">
         <v>0</v>
@@ -1364,36 +1688,48 @@
         <v>0</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>1</v>
@@ -1402,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>0</v>
@@ -1414,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>0</v>
@@ -1423,60 +1759,72 @@
         <v>0</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
         <v>0</v>
@@ -1491,27 +1839,39 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
         <v>1</v>
@@ -1520,22 +1880,22 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q16" s="1" t="n">
         <v>0</v>
@@ -1547,57 +1907,69 @@
         <v>0</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="J17" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="1" t="n">
         <v>0</v>
@@ -1609,42 +1981,54 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="J18" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>0</v>
@@ -1659,48 +2043,57 @@
         <v>0</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>0</v>
@@ -1712,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="1" t="n">
         <v>0</v>
@@ -1724,57 +2117,66 @@
         <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1" t="n">
         <v>0</v>
@@ -1789,33 +2191,45 @@
         <v>0</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>0</v>
@@ -1833,31 +2247,3668 @@
         <v>0</v>
       </c>
       <c r="O21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="P21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X57" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X58" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W73" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1877,47 +5928,47 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1955,10 +6006,10 @@
     </row>
     <row r="6" s="9" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -2031,10 +6082,10 @@
     </row>
     <row r="8" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -2075,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -2116,7 +6167,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -2157,7 +6208,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -2198,7 +6249,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -2271,10 +6322,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="15" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2312,7 +6363,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>7</v>
@@ -2353,7 +6404,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>8</v>
@@ -2394,7 +6445,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -2402,7 +6453,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>10</v>
@@ -2410,7 +6461,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>11</v>
@@ -2418,7 +6469,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>12</v>
@@ -2426,7 +6477,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>13</v>
@@ -2434,7 +6485,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>14</v>
@@ -2442,7 +6493,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>15</v>
@@ -2450,7 +6501,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>16</v>
@@ -2458,7 +6509,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>17</v>
@@ -2466,7 +6517,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="18" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>18</v>
@@ -2474,7 +6525,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>19</v>
@@ -2482,163 +6533,175 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="18" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="172">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -95,6 +95,12 @@
     <t xml:space="preserve">Lep_pod</t>
   </si>
   <si>
+    <t xml:space="preserve">Lep_fur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phy_alb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Franco</t>
   </si>
   <si>
@@ -317,12 +323,81 @@
     <t xml:space="preserve">INCT16_20191213_193000</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191213_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191213_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191213_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191213_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191214_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191217_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191219_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191220_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191220_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191220_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191220_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191220_183000</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191220_193000</t>
   </si>
   <si>
     <t xml:space="preserve">INCT16_20191220_203000</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191220_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191220_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191220_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de vento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de vento e chuva (canal esquerdo inutilizado)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_174500</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191223_181500</t>
   </si>
   <si>
@@ -332,6 +407,18 @@
     <t xml:space="preserve">INCT16_20191223_191500</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191223_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191223_231500</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191231_200000</t>
   </si>
   <si>
@@ -341,9 +428,6 @@
     <t xml:space="preserve">INCT16_20200107_190000</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruído de vento </t>
-  </si>
-  <si>
     <t xml:space="preserve">INCT16_20200111_191500</t>
   </si>
   <si>
@@ -447,6 +531,12 @@
   </si>
   <si>
     <t xml:space="preserve">Leptodactylus podicipinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leptodactylus furnarius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physalaemus albonotatus</t>
   </si>
 </sst>
 </file>
@@ -456,7 +546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -493,12 +583,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i val="true"/>
@@ -584,7 +668,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -594,10 +678,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -653,11 +733,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -665,7 +745,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -746,12 +826,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1048576"/>
+  <dimension ref="A1:Z98"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D65" activeCellId="0" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -771,13 +851,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="8.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="8.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="10.83"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,25 +937,31 @@
       <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1</v>
@@ -924,25 +1014,31 @@
       <c r="X2" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>1</v>
@@ -993,27 +1089,33 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>1</v>
@@ -1066,25 +1168,31 @@
       <c r="X4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>3</v>
@@ -1137,25 +1245,31 @@
       <c r="X5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>3</v>
@@ -1208,25 +1322,31 @@
       <c r="X6" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>2</v>
@@ -1279,25 +1399,31 @@
       <c r="X7" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="n">
         <v>2</v>
@@ -1350,25 +1476,31 @@
       <c r="X8" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
@@ -1421,28 +1553,34 @@
       <c r="X9" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>1</v>
@@ -1495,25 +1633,31 @@
       <c r="X10" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>1</v>
@@ -1564,27 +1708,33 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" s="1" t="n">
         <v>1</v>
@@ -1635,27 +1785,33 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="n">
         <v>2</v>
@@ -1706,27 +1862,33 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="n">
         <v>0</v>
@@ -1777,27 +1939,33 @@
         <v>0</v>
       </c>
       <c r="X14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H15" s="1" t="n">
         <v>0</v>
@@ -1850,25 +2018,31 @@
       <c r="X15" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" s="1" t="n">
         <v>0</v>
@@ -1919,27 +2093,33 @@
         <v>0</v>
       </c>
       <c r="X16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>2</v>
@@ -1992,25 +2172,31 @@
       <c r="X17" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1" t="n">
         <v>1</v>
@@ -2063,25 +2249,31 @@
       <c r="X18" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" s="1" t="n">
         <v>0</v>
@@ -2132,27 +2324,33 @@
         <v>0</v>
       </c>
       <c r="X19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20" s="1" t="n">
         <v>0</v>
@@ -2203,27 +2401,33 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21" s="1" t="n">
         <v>3</v>
@@ -2276,25 +2480,31 @@
       <c r="X21" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>1</v>
@@ -2345,27 +2555,33 @@
         <v>0</v>
       </c>
       <c r="X22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>2</v>
@@ -2416,27 +2632,33 @@
         <v>0</v>
       </c>
       <c r="X23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24" s="1" t="n">
         <v>0</v>
@@ -2489,28 +2711,34 @@
       <c r="X24" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>1</v>
@@ -2561,30 +2789,36 @@
         <v>0</v>
       </c>
       <c r="X25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>2</v>
@@ -2637,28 +2871,34 @@
       <c r="X26" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>0</v>
@@ -2709,30 +2949,36 @@
         <v>0</v>
       </c>
       <c r="X27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>0</v>
@@ -2783,27 +3029,33 @@
         <v>0</v>
       </c>
       <c r="X28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="n">
         <v>0</v>
@@ -2854,27 +3106,33 @@
         <v>0</v>
       </c>
       <c r="X29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="n">
         <v>2</v>
@@ -2925,27 +3183,33 @@
         <v>1</v>
       </c>
       <c r="X30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>0</v>
@@ -2996,27 +3260,33 @@
         <v>0</v>
       </c>
       <c r="X31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>1</v>
@@ -3067,27 +3337,33 @@
         <v>0</v>
       </c>
       <c r="X32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="n">
         <v>1</v>
@@ -3138,27 +3414,33 @@
         <v>0</v>
       </c>
       <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>0</v>
@@ -3209,27 +3491,33 @@
         <v>0</v>
       </c>
       <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>2</v>
@@ -3280,30 +3568,36 @@
         <v>0</v>
       </c>
       <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>0</v>
@@ -3354,27 +3648,33 @@
         <v>0</v>
       </c>
       <c r="X36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>1</v>
@@ -3425,27 +3725,33 @@
         <v>0</v>
       </c>
       <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>1</v>
@@ -3496,27 +3802,33 @@
         <v>1</v>
       </c>
       <c r="X38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1" t="n">
         <v>0</v>
@@ -3567,27 +3879,33 @@
         <v>1</v>
       </c>
       <c r="X39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>1</v>
@@ -3638,27 +3956,33 @@
         <v>1</v>
       </c>
       <c r="X40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>1</v>
@@ -3709,30 +4033,36 @@
         <v>0</v>
       </c>
       <c r="X41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H42" s="1" t="n">
         <v>0</v>
@@ -3783,27 +4113,33 @@
         <v>0</v>
       </c>
       <c r="X42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>0</v>
@@ -3856,25 +4192,31 @@
       <c r="X43" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>1</v>
@@ -3925,27 +4267,33 @@
         <v>1</v>
       </c>
       <c r="X44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="n">
         <v>0</v>
@@ -3996,27 +4344,33 @@
         <v>0</v>
       </c>
       <c r="X45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>0</v>
@@ -4067,27 +4421,33 @@
         <v>0</v>
       </c>
       <c r="X46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>0</v>
@@ -4138,30 +4498,36 @@
         <v>0</v>
       </c>
       <c r="X47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>0</v>
@@ -4212,27 +4578,33 @@
         <v>0</v>
       </c>
       <c r="X48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49" s="1" t="n">
         <v>1</v>
@@ -4283,27 +4655,33 @@
         <v>0</v>
       </c>
       <c r="X49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50" s="1" t="n">
         <v>2</v>
@@ -4354,27 +4732,33 @@
         <v>0</v>
       </c>
       <c r="X50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51" s="1" t="n">
         <v>2</v>
@@ -4425,27 +4809,33 @@
         <v>0</v>
       </c>
       <c r="X51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>2</v>
@@ -4496,27 +4886,33 @@
         <v>0</v>
       </c>
       <c r="X52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>1</v>
@@ -4567,27 +4963,33 @@
         <v>0</v>
       </c>
       <c r="X53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H54" s="1" t="n">
         <v>3</v>
@@ -4640,25 +5042,31 @@
       <c r="X54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>3</v>
@@ -4711,25 +5119,31 @@
       <c r="X55" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H56" s="1" t="n">
         <v>3</v>
@@ -4782,28 +5196,34 @@
       <c r="X56" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="Y56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H57" s="1" t="n">
         <v>2</v>
@@ -4854,30 +5274,36 @@
         <v>2</v>
       </c>
       <c r="X57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>1</v>
@@ -4928,30 +5354,36 @@
         <v>2</v>
       </c>
       <c r="X58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="H59" s="1" t="n">
         <v>2</v>
@@ -5003,26 +5435,32 @@
       </c>
       <c r="X59" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="Y59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60" s="1" t="n">
         <v>2</v>
@@ -5074,26 +5512,32 @@
       </c>
       <c r="X60" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="Y60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H61" s="1" t="n">
         <v>1</v>
@@ -5145,26 +5589,32 @@
       </c>
       <c r="X61" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="Y61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H62" s="1" t="n">
         <v>2</v>
@@ -5215,27 +5665,33 @@
         <v>0</v>
       </c>
       <c r="X62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63" s="1" t="n">
         <v>1</v>
@@ -5283,27 +5739,36 @@
         <v>0</v>
       </c>
       <c r="W63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>3</v>
@@ -5353,30 +5818,191 @@
       <c r="W64" s="1" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="X64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H67" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1" t="n">
         <v>1</v>
@@ -5385,25 +6011,25 @@
         <v>0</v>
       </c>
       <c r="K67" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M67" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q67" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="1" t="n">
         <v>0</v>
@@ -5412,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="T67" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67" s="1" t="n">
         <v>0</v>
@@ -5421,45 +6047,54 @@
         <v>0</v>
       </c>
       <c r="W67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z67" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H68" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K68" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" s="1" t="n">
         <v>0</v>
@@ -5474,13 +6109,13 @@
         <v>0</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S68" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T68" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" s="1" t="n">
         <v>0</v>
@@ -5489,36 +6124,42 @@
         <v>0</v>
       </c>
       <c r="W68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="H69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" s="1" t="n">
         <v>0</v>
@@ -5548,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="S69" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" s="1" t="n">
         <v>0</v>
@@ -5560,36 +6201,42 @@
         <v>0</v>
       </c>
       <c r="W69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="H70" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" s="1" t="n">
         <v>0</v>
@@ -5601,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="M70" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="1" t="n">
         <v>0</v>
@@ -5631,33 +6278,42 @@
         <v>0</v>
       </c>
       <c r="W70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" s="1" t="n">
         <v>0</v>
@@ -5669,13 +6325,13 @@
         <v>0</v>
       </c>
       <c r="M71" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P71" s="1" t="n">
         <v>0</v>
@@ -5687,51 +6343,60 @@
         <v>0</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="U71" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V71" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K72" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" s="1" t="n">
         <v>0</v>
@@ -5743,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P72" s="1" t="n">
         <v>0</v>
@@ -5758,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" s="1" t="n">
         <v>0</v>
@@ -5767,57 +6432,63 @@
         <v>0</v>
       </c>
       <c r="W72" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="H73" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K73" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M73" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="1" t="n">
         <v>0</v>
@@ -5826,90 +6497,1785 @@
         <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I74" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W74" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X92" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H97" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W97" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5928,11 +8294,11 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -5940,768 +8306,776 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>109</v>
+      <c r="A2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>110</v>
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>112</v>
+      <c r="A4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-    </row>
-    <row r="6" s="9" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
+      <c r="A5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+    </row>
+    <row r="6" s="8" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-    </row>
-    <row r="8" s="11" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
+      <c r="A9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
+      <c r="A10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+    </row>
+    <row r="12" s="8" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
+      <c r="B12" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
+      <c r="A14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="182">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -419,7 +419,37 @@
     <t xml:space="preserve">INCT16_20191223_231500</t>
   </si>
   <si>
+    <t xml:space="preserve">INCT16_20191227_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_190000</t>
+  </si>
+  <si>
     <t xml:space="preserve">INCT16_20191231_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20191231_230000</t>
   </si>
   <si>
     <t xml:space="preserve">INCT16_20200107_180000</t>
@@ -826,12 +856,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z98"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
+      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,7 +889,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.68"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="27" style="1" width="10.83"/>
   </cols>
@@ -7999,8 +8029,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y93" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U94" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z94" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>26</v>
@@ -8012,7 +8194,7 @@
         <v>28</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>30</v>
@@ -8030,19 +8212,19 @@
         <v>0</v>
       </c>
       <c r="K95" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" s="1" t="n">
         <v>0</v>
       </c>
       <c r="M95" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P95" s="1" t="n">
         <v>0</v>
@@ -8054,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="S95" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T95" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" s="1" t="n">
         <v>2</v>
@@ -8066,6 +8248,15 @@
         <v>0</v>
       </c>
       <c r="W95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8080,7 +8271,7 @@
         <v>28</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>30</v>
@@ -8092,13 +8283,13 @@
         <v>2</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" s="1" t="n">
         <v>0</v>
@@ -8110,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" s="1" t="n">
         <v>0</v>
@@ -8122,18 +8313,27 @@
         <v>0</v>
       </c>
       <c r="S96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V96" s="1" t="n">
         <v>0</v>
       </c>
       <c r="W96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8148,7 +8348,7 @@
         <v>28</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>30</v>
@@ -8156,20 +8356,17 @@
       <c r="F97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="H97" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" s="1" t="n">
         <v>0</v>
       </c>
       <c r="K97" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" s="1" t="n">
         <v>0</v>
@@ -8184,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q97" s="1" t="n">
         <v>0</v>
@@ -8196,15 +8393,24 @@
         <v>0</v>
       </c>
       <c r="T97" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U97" s="1" t="n">
         <v>1</v>
       </c>
       <c r="V97" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8219,7 +8425,7 @@
         <v>28</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>30</v>
@@ -8228,51 +8434,653 @@
         <v>31</v>
       </c>
       <c r="H98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I98" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W98" s="1" t="n">
+      <c r="I99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U103" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W106" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8298,7 +9106,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -8307,10 +9115,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8318,23 +9126,23 @@
         <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -8372,10 +9180,10 @@
     </row>
     <row r="6" s="8" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -8448,10 +9256,10 @@
     </row>
     <row r="8" s="10" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -8492,7 +9300,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -8533,7 +9341,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -8574,7 +9382,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -8615,7 +9423,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -8688,10 +9496,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -8729,7 +9537,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
@@ -8770,7 +9578,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
@@ -8811,7 +9619,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -8819,7 +9627,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -8827,7 +9635,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -8835,7 +9643,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
@@ -8843,7 +9651,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
@@ -8851,7 +9659,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>14</v>
@@ -8859,7 +9667,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>15</v>
@@ -8867,7 +9675,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>16</v>
@@ -8875,7 +9683,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>17</v>
@@ -8883,7 +9691,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>18</v>
@@ -8891,7 +9699,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -8899,7 +9707,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>20</v>
@@ -8907,7 +9715,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -8915,7 +9723,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>22</v>
@@ -8923,7 +9731,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>23</v>
@@ -8931,7 +9739,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>24</v>
@@ -8939,7 +9747,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>25</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="presença_espécies" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="286">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -648,6 +648,117 @@
   </si>
   <si>
     <t xml:space="preserve">INCT16_20200128_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200130_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200131_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200207_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200208_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200208_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200211_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_033000</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -1067,10 +1178,10 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A165" activeCellId="0" sqref="A165"/>
+      <selection pane="bottomLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1092,7 +1203,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="7.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="7.8"/>
@@ -1101,7 +1212,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="4.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="3.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="5.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.4"/>
@@ -15788,6 +15899,3308 @@
         <v>0</v>
       </c>
       <c r="AD164" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD165" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U166" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD166" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H167" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U167" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD167" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U168" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD168" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H169" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD169" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD170" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H171" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H172" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H173" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W173" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC173" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD173" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H174" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC174" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD174" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W175" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD175" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H176" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O176" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W176" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD176" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T177" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W177" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD177" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC178" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD178" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC179" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD179" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H181" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC181" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD181" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H182" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U182" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC182" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD182" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H183" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W183" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD183" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H184" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W184" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC184" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD184" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U185" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC185" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD185" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC186" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD186" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC187" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD187" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U188" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC188" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD188" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC189" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD189" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U190" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC190" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD190" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U191" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC191" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD191" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC192" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD192" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H193" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U193" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC193" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD193" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H194" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC194" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD194" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H195" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U195" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W195" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC195" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD195" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H196" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T196" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U196" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W196" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC196" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD196" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U197" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC197" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD197" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H198" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC198" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD198" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H199" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC199" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD199" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H200" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T200" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U200" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W200" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD200" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H201" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T201" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U201" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X201" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC201" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD201" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15811,11 +19224,11 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -15824,10 +19237,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15835,23 +19248,23 @@
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -15889,10 +19302,10 @@
     </row>
     <row r="6" s="8" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -15965,10 +19378,10 @@
     </row>
     <row r="8" s="10" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -16009,7 +19422,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -16050,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -16091,7 +19504,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -16132,7 +19545,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -16205,10 +19618,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -16246,7 +19659,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
@@ -16287,7 +19700,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
@@ -16328,7 +19741,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -16336,7 +19749,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -16344,7 +19757,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -16352,7 +19765,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
@@ -16360,7 +19773,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
@@ -16368,7 +19781,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>14</v>
@@ -16376,7 +19789,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>15</v>
@@ -16384,7 +19797,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>16</v>
@@ -16392,7 +19805,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>17</v>
@@ -16400,7 +19813,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>18</v>
@@ -16408,7 +19821,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -16416,7 +19829,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>20</v>
@@ -16424,7 +19837,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -16432,7 +19845,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>22</v>
@@ -16440,7 +19853,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>23</v>
@@ -16448,7 +19861,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>24</v>
@@ -16456,7 +19869,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -16464,7 +19877,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -16472,7 +19885,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>27</v>
@@ -16480,7 +19893,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>28</v>
@@ -16488,7 +19901,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>29</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="307">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -759,6 +759,69 @@
   </si>
   <si>
     <t xml:space="preserve">INCT16_20200213_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_041500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200213_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200214_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200220_233000</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -1179,9 +1242,9 @@
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A202" activeCellId="0" sqref="A202"/>
+      <selection pane="bottomLeft" activeCell="A223" activeCellId="0" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19204,6 +19267,1890 @@
         <v>0</v>
       </c>
     </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H202" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T202" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U202" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC202" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD202" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H203" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T203" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U203" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W203" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC203" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD203" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC204" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD204" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H205" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC205" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD205" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H206" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X206" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC206" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD206" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H207" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W207" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC207" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD207" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H208" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U208" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V208" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W208" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC208" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD208" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H209" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S209" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U209" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V209" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W209" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC209" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD209" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H210" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U210" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V210" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W210" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC210" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD210" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H211" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U211" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W211" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC211" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD211" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC212" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD212" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H213" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T213" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U213" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC213" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD213" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H214" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W214" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC214" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H215" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC215" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD215" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H216" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U216" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W216" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC216" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD216" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H217" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U217" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC217" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD217" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H218" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W218" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC218" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD218" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H219" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U219" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W219" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC219" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD219" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H220" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U220" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W220" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC220" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD220" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U221" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC221" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD221" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H222" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T222" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U222" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W222" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC222" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD222" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -19228,7 +21175,7 @@
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -19237,10 +21184,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19248,23 +21195,23 @@
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -19302,10 +21249,10 @@
     </row>
     <row r="6" s="8" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -19378,10 +21325,10 @@
     </row>
     <row r="8" s="10" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -19422,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -19463,7 +21410,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -19504,7 +21451,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -19545,7 +21492,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -19618,10 +21565,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -19659,7 +21606,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
@@ -19700,7 +21647,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
@@ -19741,7 +21688,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -19749,7 +21696,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -19757,7 +21704,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -19765,7 +21712,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
@@ -19773,7 +21720,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
@@ -19781,7 +21728,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>14</v>
@@ -19789,7 +21736,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>15</v>
@@ -19797,7 +21744,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>16</v>
@@ -19805,7 +21752,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>17</v>
@@ -19813,7 +21760,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>18</v>
@@ -19821,7 +21768,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -19829,7 +21776,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>20</v>
@@ -19837,7 +21784,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -19845,7 +21792,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>22</v>
@@ -19853,7 +21800,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>23</v>
@@ -19861,7 +21808,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>24</v>
@@ -19869,7 +21816,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -19877,7 +21824,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -19885,7 +21832,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>27</v>
@@ -19893,7 +21840,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>28</v>
@@ -19901,7 +21848,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>29</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="presença_espécies" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="344">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -822,6 +822,117 @@
   </si>
   <si>
     <t xml:space="preserve">INCT16_20200220_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200221_041500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200221_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhum anuro vocalizando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200223_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200226_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200227_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200227_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200228_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200228_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200228_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200228_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200229_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200229_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_041500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de vento; apenas aves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_210000</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -1241,10 +1352,10 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A223" activeCellId="0" sqref="A223"/>
+      <selection pane="bottomLeft" activeCell="D258" activeCellId="0" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1262,7 +1373,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="6.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="7.5"/>
@@ -21151,7 +21262,3136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H223" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T223" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W223" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X223" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC223" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD223" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X224" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC224" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD224" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC225" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD225" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H226" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC226" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD226" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W227" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC227" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD227" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD228" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC229" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD229" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC230" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD230" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U231" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V231" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC231" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD231" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC232" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD232" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O233" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U233" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V233" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC233" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD233" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U234" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V234" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD234" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H235" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U235" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V235" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC235" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD235" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U236" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V236" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC236" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD236" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H237" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U237" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC237" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD237" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC238" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD238" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H239" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC239" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD239" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H240" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC240" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD240" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC241" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD241" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H242" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC242" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD242" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC243" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD243" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC244" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD244" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U245" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC245" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD245" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U246" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC246" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD246" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U247" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC247" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD247" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H248" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U248" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC248" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD248" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H249" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC249" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD249" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U250" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC250" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD250" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H251" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC251" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD251" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H252" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC252" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD252" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H253" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC253" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD253" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC254" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD254" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U255" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC255" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD255" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U256" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC256" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD256" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC257" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD257" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -21171,11 +24411,11 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -21184,10 +24424,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -21195,23 +24435,23 @@
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -21249,10 +24489,10 @@
     </row>
     <row r="6" s="8" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -21325,10 +24565,10 @@
     </row>
     <row r="8" s="10" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -21369,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -21410,7 +24650,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -21451,7 +24691,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -21492,7 +24732,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -21565,10 +24805,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -21606,7 +24846,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
@@ -21647,7 +24887,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
@@ -21688,7 +24928,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -21696,7 +24936,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -21704,7 +24944,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -21712,7 +24952,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
@@ -21720,7 +24960,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
@@ -21728,7 +24968,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>14</v>
@@ -21736,7 +24976,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>15</v>
@@ -21744,7 +24984,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>16</v>
@@ -21752,7 +24992,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>17</v>
@@ -21760,7 +25000,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>18</v>
@@ -21768,7 +25008,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -21776,7 +25016,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>20</v>
@@ -21784,7 +25024,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -21792,7 +25032,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>22</v>
@@ -21800,7 +25040,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>23</v>
@@ -21808,7 +25048,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>24</v>
@@ -21816,7 +25056,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -21824,7 +25064,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -21832,7 +25072,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>27</v>
@@ -21840,7 +25080,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>28</v>
@@ -21848,7 +25088,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>29</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="410">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -933,6 +933,204 @@
   </si>
   <si>
     <t xml:space="preserve">INCT16_20200322_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de vento e chuva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200322_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhum anuro vocalizando; ruído de avião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de vento; nenhum anuro vocalizando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200324_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200325_043000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200325_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_004500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de vento e chuva; nenhum anuro vocalizando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_014500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_024500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_034500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_041500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_184500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_194500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_204500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_214500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFERIR CANTO ESTRANHO, talvez anuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_224500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200327_234500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_184500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_194500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_204500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_214500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_224500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200329_234500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200330_004500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200330_014500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200330_024500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200330_034500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200330_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200331_043000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200331_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200331_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200331_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200331_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200331_221500</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -1353,9 +1551,9 @@
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D258" activeCellId="0" sqref="D258"/>
+      <selection pane="bottomLeft" activeCell="A319" activeCellId="0" sqref="A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1387,8 +1585,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="3.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="7.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="7.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="31" style="1" width="10.83"/>
   </cols>
@@ -24389,6 +24587,5552 @@
         <v>0</v>
       </c>
       <c r="AD257" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC258" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD258" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC259" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD259" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC260" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD260" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H261" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC261" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD261" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC262" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD262" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC263" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD263" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC264" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD264" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC265" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD265" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC266" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD266" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC267" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD267" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC268" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD268" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC269" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD269" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U270" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC270" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD270" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC271" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD271" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC272" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD272" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC273" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD273" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC274" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD274" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC275" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD275" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC276" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD276" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U277" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD277" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD278" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD279" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD280" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD281" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD282" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD283" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD284" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD285" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD286" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD287" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC288" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD288" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC289" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD289" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC290" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD290" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC291" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD291" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC292" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD292" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC293" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD293" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD294" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC295" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD295" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC296" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD296" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC297" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD297" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H298" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC298" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD298" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H299" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC299" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD299" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H300" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC300" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD300" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H301" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC301" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD301" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H302" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC302" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD302" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H303" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB303" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC303" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD303" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H304" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB304" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC304" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD304" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H305" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB305" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC305" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD305" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H306" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB306" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC306" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD306" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H307" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC307" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD307" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H308" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB308" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC308" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD308" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H309" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC309" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD309" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H310" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC310" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD310" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H311" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC311" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD311" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC312" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD312" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC313" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD313" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC314" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD314" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC315" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD315" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H316" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC316" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD316" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U317" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC317" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD317" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC318" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD318" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24415,7 +30159,7 @@
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -24424,10 +30168,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24435,23 +30179,23 @@
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -24489,10 +30233,10 @@
     </row>
     <row r="6" s="8" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -24565,10 +30309,10 @@
     </row>
     <row r="8" s="10" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -24609,7 +30353,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -24650,7 +30394,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -24691,7 +30435,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -24732,7 +30476,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -24805,10 +30549,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -24846,7 +30590,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
@@ -24887,7 +30631,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
@@ -24928,7 +30672,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -24936,7 +30680,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -24944,7 +30688,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -24952,7 +30696,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
@@ -24960,7 +30704,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
@@ -24968,7 +30712,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>14</v>
@@ -24976,7 +30720,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>15</v>
@@ -24984,7 +30728,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>16</v>
@@ -24992,7 +30736,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>17</v>
@@ -25000,7 +30744,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>18</v>
@@ -25008,7 +30752,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -25016,7 +30760,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>20</v>
@@ -25024,7 +30768,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -25032,7 +30776,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>22</v>
@@ -25040,7 +30784,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>23</v>
@@ -25048,7 +30792,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>24</v>
@@ -25056,7 +30800,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -25064,7 +30808,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -25072,7 +30816,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>27</v>
@@ -25080,7 +30824,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>28</v>
@@ -25088,7 +30832,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>29</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="presença_espécies" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="441">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -1131,6 +1131,99 @@
   </si>
   <si>
     <t xml:space="preserve">INCT16_20200331_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20200331_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201101_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201102_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201102_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201102_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201105_014500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201106_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201106_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201106_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201106_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201106_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201106_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201106_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201108_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201109_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201109_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT16_20201109_031500</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -1550,10 +1643,10 @@
   </sheetPr>
   <dimension ref="A1:AD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A319" activeCellId="0" sqref="A319"/>
+      <selection pane="bottomLeft" activeCell="A350" activeCellId="0" sqref="A350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30136,6 +30229,2783 @@
         <v>0</v>
       </c>
     </row>
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U319" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC319" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD319" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H320" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I320" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC320" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD320" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H321" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I321" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC321" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD321" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H322" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I322" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC322" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD322" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H323" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I323" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC323" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD323" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H324" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I324" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC324" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD324" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC325" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD325" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC326" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD326" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC327" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD327" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC328" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD328" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC329" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD329" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O330" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC330" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD330" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC331" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD331" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC332" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD332" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC333" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD333" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC334" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD334" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O335" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC335" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD335" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC336" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD336" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC337" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD337" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC338" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD338" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T339" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC339" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD339" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC340" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD340" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC341" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD341" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC342" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD342" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J343" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O343" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X343" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC343" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD343" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O344" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC344" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD344" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC345" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD345" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC346" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD346" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC347" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD347" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC348" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD348" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC349" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD349" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -30155,11 +33025,11 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -30168,10 +33038,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30179,23 +33049,23 @@
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -30233,10 +33103,10 @@
     </row>
     <row r="6" s="8" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -30309,10 +33179,10 @@
     </row>
     <row r="8" s="10" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -30353,7 +33223,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -30394,7 +33264,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -30435,7 +33305,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -30476,7 +33346,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -30549,10 +33419,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -30590,7 +33460,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>7</v>
@@ -30631,7 +33501,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>8</v>
@@ -30672,7 +33542,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>9</v>
@@ -30680,7 +33550,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>10</v>
@@ -30688,7 +33558,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>11</v>
@@ -30696,7 +33566,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
@@ -30704,7 +33574,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>13</v>
@@ -30712,7 +33582,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>14</v>
@@ -30720,7 +33590,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>15</v>
@@ -30728,7 +33598,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>16</v>
@@ -30736,7 +33606,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>17</v>
@@ -30744,7 +33614,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>18</v>
@@ -30752,7 +33622,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>19</v>
@@ -30760,7 +33630,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>20</v>
@@ -30768,7 +33638,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="B29" s="18" t="s">
         <v>21</v>
@@ -30776,7 +33646,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>22</v>
@@ -30784,7 +33654,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>23</v>
@@ -30792,7 +33662,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>24</v>
@@ -30800,7 +33670,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>25</v>
@@ -30808,7 +33678,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>26</v>
@@ -30816,7 +33686,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>27</v>
@@ -30824,7 +33694,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>28</v>
@@ -30832,7 +33702,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>29</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="502">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -1338,6 +1338,66 @@
   </si>
   <si>
     <t xml:space="preserve">INCT17_20191217_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_014500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191218_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191219_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191219_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191220_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191220_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191221_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191222_004500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191222_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191222_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191222_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191222_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191222_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20191222_201500</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -1823,9 +1883,9 @@
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C382" activeCellId="0" sqref="C382"/>
+      <selection pane="bottomLeft" activeCell="D401" activeCellId="0" sqref="D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -39477,6 +39537,93 @@
       <c r="C382" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D382" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K382" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T382" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X382" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z382" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE382" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG382" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
@@ -39488,6 +39635,96 @@
       <c r="C383" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D383" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K383" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L383" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T383" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z383" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE383" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF383" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG383" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
@@ -39499,6 +39736,93 @@
       <c r="C384" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D384" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X384" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z384" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA384" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF384" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG384" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
@@ -39510,6 +39834,93 @@
       <c r="C385" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D385" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L385" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M385" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X385" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z385" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA385" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE385" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF385" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG385" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
@@ -39521,6 +39932,93 @@
       <c r="C386" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D386" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K386" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L386" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M386" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N386" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T386" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X386" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z386" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE386" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF386" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG386" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
@@ -39532,6 +40030,93 @@
       <c r="C387" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D387" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L387" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M387" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N387" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T387" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X387" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z387" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE387" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG387" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
@@ -39543,6 +40128,93 @@
       <c r="C388" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D388" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L388" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M388" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N388" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T388" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X388" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z388" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD388" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE388" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF388" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG388" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
@@ -39554,6 +40226,93 @@
       <c r="C389" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D389" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L389" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N389" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T389" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X389" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z389" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE389" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF389" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG389" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
@@ -39565,6 +40324,93 @@
       <c r="C390" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D390" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L390" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T390" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X390" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z390" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE390" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF390" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG390" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
@@ -39576,6 +40422,93 @@
       <c r="C391" s="1" t="s">
         <v>405</v>
       </c>
+      <c r="D391" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L391" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T391" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X391" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z391" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE391" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF391" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG391" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
@@ -39585,6 +40518,1118 @@
         <v>411</v>
       </c>
       <c r="C392" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T392" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG392" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K393" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T393" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z393" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE393" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF393" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG393" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z394" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA394" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE394" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF394" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG394" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K395" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L395" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T395" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X395" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE395" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF395" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG395" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K396" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L396" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T396" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X396" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE396" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF396" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG396" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T397" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE397" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG397" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L398" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T398" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE398" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF398" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG398" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X399" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z399" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA399" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE399" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF399" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG399" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE400" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG400" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L401" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M401" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N401" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O401" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z401" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE401" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF401" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG401" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -39608,10 +41653,10 @@
   <dimension ref="A1:AI66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -39621,10 +41666,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39632,23 +41677,23 @@
         <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -39686,10 +41731,10 @@
     </row>
     <row r="6" s="10" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -39762,10 +41807,10 @@
     </row>
     <row r="8" s="13" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -39806,7 +41851,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -39847,7 +41892,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -39888,7 +41933,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -39929,7 +41974,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -40002,10 +42047,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>34</v>
@@ -40047,7 +42092,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>7</v>
@@ -40092,7 +42137,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
@@ -40137,7 +42182,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -40149,7 +42194,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -40163,7 +42208,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
@@ -40177,7 +42222,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>12</v>
@@ -40191,7 +42236,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
@@ -40205,7 +42250,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -40219,7 +42264,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -40231,7 +42276,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>16</v>
@@ -40243,7 +42288,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -40255,7 +42300,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -40267,7 +42312,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -40281,7 +42326,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -40293,7 +42338,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -40307,7 +42352,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>22</v>
@@ -40321,7 +42366,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>23</v>
@@ -40335,7 +42380,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>24</v>
@@ -40349,7 +42394,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -40363,7 +42408,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>26</v>
@@ -40375,7 +42420,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>27</v>
@@ -40387,7 +42432,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>28</v>
@@ -40399,7 +42444,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>29</v>
@@ -40411,7 +42456,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>30</v>
@@ -40425,7 +42470,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>31</v>
@@ -40439,7 +42484,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>32</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2936" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="561">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -1527,6 +1527,51 @@
   </si>
   <si>
     <t xml:space="preserve">INCT17_20200113_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200113_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200115_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200115_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200119_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200119_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200120_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200120_013000</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -2015,9 +2060,9 @@
   <dimension ref="A1:AH1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A439" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A450" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AH444" activeCellId="0" sqref="AH444"/>
+      <selection pane="bottomLeft" activeCell="A458" activeCellId="0" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -47091,6 +47136,96 @@
       <c r="C444" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D444" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K444" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T444" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X444" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG444" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH444" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
@@ -47102,6 +47237,96 @@
       <c r="C445" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D445" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T445" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X445" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z445" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH445" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
@@ -47113,6 +47338,99 @@
       <c r="C446" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D446" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T446" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X446" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG446" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH446" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
@@ -47124,6 +47442,96 @@
       <c r="C447" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D447" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X447" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z447" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG447" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH447" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
@@ -47135,6 +47543,96 @@
       <c r="C448" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D448" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L448" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N448" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T448" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X448" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z448" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG448" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH448" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
@@ -47146,6 +47644,96 @@
       <c r="C449" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D449" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K449" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L449" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N449" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z449" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH449" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
@@ -47157,6 +47745,96 @@
       <c r="C450" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D450" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K450" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L450" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N450" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T450" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X450" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z450" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG450" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH450" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
@@ -47168,6 +47846,96 @@
       <c r="C451" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D451" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N451" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T451" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X451" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z451" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG451" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH451" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
@@ -47179,6 +47947,96 @@
       <c r="C452" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D452" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K452" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N452" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T452" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X452" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z452" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG452" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH452" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
@@ -47190,6 +48048,96 @@
       <c r="C453" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D453" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X453" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z453" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH453" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
@@ -47201,6 +48149,96 @@
       <c r="C454" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D454" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K454" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L454" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T454" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X454" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z454" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG454" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH454" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
@@ -47212,6 +48250,96 @@
       <c r="C455" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D455" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X455" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z455" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF455" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG455" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH455" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
@@ -47223,16 +48351,196 @@
       <c r="C456" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="D456" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N456" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T456" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X456" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z456" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG456" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH456" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
-        <v>34</v>
+        <v>515</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>412</v>
       </c>
       <c r="C457" s="1" t="s">
         <v>406</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K457" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T457" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X457" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z457" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH457" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -47415,7 +48723,7 @@
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -47425,10 +48733,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -47436,23 +48744,23 @@
         <v>39</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -47490,10 +48798,10 @@
     </row>
     <row r="6" s="10" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -47566,10 +48874,10 @@
     </row>
     <row r="8" s="13" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -47610,7 +48918,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -47651,7 +48959,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -47692,7 +49000,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -47733,7 +49041,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -47806,10 +49114,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>35</v>
@@ -47851,7 +49159,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>7</v>
@@ -47896,7 +49204,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
@@ -47941,7 +49249,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -47953,7 +49261,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -47967,7 +49275,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
@@ -47981,7 +49289,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>12</v>
@@ -47995,7 +49303,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
@@ -48009,7 +49317,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -48023,7 +49331,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -48035,7 +49343,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>16</v>
@@ -48047,7 +49355,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -48059,7 +49367,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -48071,7 +49379,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -48085,7 +49393,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -48097,7 +49405,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -48111,7 +49419,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>22</v>
@@ -48125,7 +49433,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>23</v>
@@ -48139,7 +49447,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>24</v>
@@ -48153,7 +49461,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -48167,7 +49475,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>26</v>
@@ -48181,7 +49489,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>27</v>
@@ -48195,7 +49503,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>28</v>
@@ -48207,7 +49515,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>29</v>
@@ -48219,7 +49527,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>30</v>
@@ -48233,7 +49541,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>31</v>
@@ -48247,7 +49555,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>32</v>
@@ -48261,7 +49569,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>33</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="654">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -1806,6 +1806,48 @@
   </si>
   <si>
     <t xml:space="preserve">INCT17_20200213_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200213_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200216_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200216_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200218_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200218_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200218_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200218_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200218_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200218_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200218_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200219_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200219_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200219_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200219_030000</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -2297,9 +2339,9 @@
   <dimension ref="A1:AI887"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A523" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A532" activeCellId="0" sqref="A532"/>
+      <selection pane="bottomLeft" activeCell="D545" activeCellId="0" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -57898,36 +57940,1628 @@
       <c r="C532" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D532" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L532" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T532" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X532" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH532" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI532" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T533" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X533" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH533" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI533" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X534" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z534" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH534" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI534" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T535" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X535" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z535" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH535" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI535" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X536" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z536" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG536" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH536" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI536" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L537" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T537" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X537" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z537" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH537" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI537" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K538" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L538" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T538" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X538" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z538" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI538" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K539" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L539" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N539" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T539" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X539" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z539" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH539" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI539" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K540" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L540" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N540" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T540" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X540" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z540" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH540" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI540" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K541" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L541" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T541" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X541" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH541" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI541" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K542" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L542" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T542" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X542" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH542" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI542" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K543" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L543" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T543" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X543" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z543" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH543" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI543" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K544" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T544" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X544" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH544" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI544" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K545" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T545" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X545" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH545" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI545" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -58005,7 +59639,7 @@
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -58015,10 +59649,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -58026,23 +59660,23 @@
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -58080,10 +59714,10 @@
     </row>
     <row r="6" s="10" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -58156,10 +59790,10 @@
     </row>
     <row r="8" s="13" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -58200,7 +59834,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -58241,7 +59875,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -58282,7 +59916,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -58323,7 +59957,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -58396,10 +60030,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>36</v>
@@ -58441,7 +60075,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>7</v>
@@ -58486,7 +60120,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
@@ -58531,7 +60165,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -58543,7 +60177,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -58557,7 +60191,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
@@ -58571,7 +60205,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>12</v>
@@ -58585,7 +60219,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
@@ -58599,7 +60233,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -58613,7 +60247,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -58625,7 +60259,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>16</v>
@@ -58637,7 +60271,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -58649,7 +60283,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -58661,7 +60295,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -58675,7 +60309,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -58687,7 +60321,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -58701,7 +60335,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>22</v>
@@ -58715,7 +60349,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>23</v>
@@ -58729,7 +60363,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>24</v>
@@ -58743,7 +60377,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -58757,7 +60391,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>26</v>
@@ -58771,7 +60405,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>27</v>
@@ -58785,7 +60419,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>28</v>
@@ -58797,7 +60431,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>29</v>
@@ -58809,7 +60443,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>30</v>
@@ -58823,7 +60457,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>31</v>
@@ -58837,7 +60471,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>32</v>
@@ -58851,7 +60485,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>33</v>
@@ -58865,7 +60499,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>34</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="presença_espécies" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3529" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="711">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -1848,6 +1848,177 @@
   </si>
   <si>
     <t xml:space="preserve">INCT17_20200219_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200225_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200225_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200225_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200225_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200225_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200225_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200226_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200226_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200226_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200226_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200227_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200229_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200229_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200229_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200229_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200229_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200229_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200307_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200309_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200309_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200311_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200313_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200314_043000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200314_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200317_043000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200317_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200319_043000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200319_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_013000</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -2338,10 +2509,10 @@
   </sheetPr>
   <dimension ref="A1:AI887"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D545" activeCellId="0" sqref="D545"/>
+      <selection pane="bottomLeft" activeCell="A635" activeCellId="0" sqref="A635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -59396,6 +59567,99 @@
       <c r="C546" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D546" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K546" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X546" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z546" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG546" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH546" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI546" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
@@ -59407,6 +59671,102 @@
       <c r="C547" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D547" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K547" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L547" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X547" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z547" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH547" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI547" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
@@ -59418,6 +59778,99 @@
       <c r="C548" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D548" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K548" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L548" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X548" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z548" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH548" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI548" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
@@ -59429,6 +59882,99 @@
       <c r="C549" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D549" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K549" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L549" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N549" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X549" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z549" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB549" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH549" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI549" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="s">
@@ -59440,6 +59986,99 @@
       <c r="C550" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D550" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K550" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L550" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T550" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X550" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z550" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB550" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH550" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI550" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="s">
@@ -59451,6 +60090,99 @@
       <c r="C551" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D551" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K551" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T551" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X551" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z551" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH551" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI551" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
@@ -59462,6 +60194,102 @@
       <c r="C552" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D552" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K552" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L552" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T552" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X552" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z552" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH552" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI552" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
@@ -59473,6 +60301,102 @@
       <c r="C553" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D553" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K553" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X553" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH553" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI553" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
@@ -59484,6 +60408,99 @@
       <c r="C554" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D554" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K554" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L554" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T554" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X554" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z554" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH554" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI554" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
@@ -59495,6 +60512,99 @@
       <c r="C555" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D555" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K555" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T555" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X555" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH555" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI555" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
@@ -59506,6 +60616,99 @@
       <c r="C556" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D556" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K556" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X556" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH556" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI556" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
@@ -59517,6 +60720,99 @@
       <c r="C557" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D557" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L557" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X557" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z557" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH557" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI557" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
@@ -59528,6 +60824,99 @@
       <c r="C558" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D558" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K558" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L558" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X558" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z558" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH558" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI558" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
@@ -59539,6 +60928,99 @@
       <c r="C559" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D559" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K559" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L559" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N559" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T559" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X559" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z559" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH559" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI559" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
@@ -59550,6 +61032,99 @@
       <c r="C560" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D560" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K560" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L560" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N560" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T560" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X560" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH560" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI560" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
@@ -59561,59 +61136,4719 @@
       <c r="C561" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D561" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K561" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L561" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N561" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X561" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH561" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI561" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K562" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L562" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X562" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH562" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI562" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K563" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X563" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH563" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI563" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K564" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X564" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH564" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI564" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K565" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X565" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH565" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI565" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K566" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L566" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X566" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH566" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI566" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X567" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z567" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH567" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI567" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K568" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L568" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X568" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z568" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH568" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI568" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K569" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L569" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X569" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH569" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI569" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K570" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L570" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X570" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z570" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH570" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI570" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K571" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X571" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH571" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI571" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K572" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X572" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH572" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI572" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K573" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X573" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH573" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI573" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X574" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z574" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH574" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI574" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K575" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X575" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH575" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI575" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X576" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH576" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI576" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K577" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X577" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH577" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI577" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K578" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X578" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH578" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI578" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K579" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L579" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X579" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z579" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH579" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI579" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K580" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L580" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X580" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z580" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH580" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI580" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K581" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L581" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X581" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z581" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH581" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI581" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K582" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L582" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X582" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH582" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI582" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K583" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X583" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH583" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI583" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K584" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X584" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH584" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI584" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K585" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X585" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z585" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH585" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI585" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F586" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K586" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X586" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI586" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F587" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K587" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X587" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z587" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH587" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI587" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F588" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K588" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X588" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH588" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI588" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F589" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X589" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH589" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI589" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K590" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L590" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X590" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH590" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI590" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K591" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L591" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N591" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X591" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH591" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI591" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K592" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L592" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X592" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH592" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI592" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K593" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X593" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH593" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI593" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K594" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X594" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH594" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI594" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X595" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH595" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI595" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X596" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z596" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH596" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI596" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K597" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X597" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH597" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI597" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X598" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z598" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH598" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI598" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X599" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH599" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI599" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K600" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X600" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH600" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI600" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K601" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L601" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X601" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG601" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH601" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI601" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K602" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X602" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z602" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH602" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI602" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
     <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -59635,11 +65870,11 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -59649,10 +65884,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>610</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -59660,23 +65895,23 @@
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>611</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>615</v>
+        <v>672</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -59714,10 +65949,10 @@
     </row>
     <row r="6" s="10" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>616</v>
+        <v>673</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -59790,10 +66025,10 @@
     </row>
     <row r="8" s="13" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>619</v>
+        <v>676</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -59834,7 +66069,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>620</v>
+        <v>677</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -59875,7 +66110,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -59916,7 +66151,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -59957,7 +66192,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>623</v>
+        <v>680</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -60030,10 +66265,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>36</v>
@@ -60075,7 +66310,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>7</v>
@@ -60120,7 +66355,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>627</v>
+        <v>684</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
@@ -60165,7 +66400,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>628</v>
+        <v>685</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -60177,7 +66412,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>629</v>
+        <v>686</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -60191,7 +66426,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
@@ -60205,7 +66440,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>12</v>
@@ -60219,7 +66454,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
@@ -60233,7 +66468,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -60247,7 +66482,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -60259,7 +66494,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>635</v>
+        <v>692</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>16</v>
@@ -60271,7 +66506,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>636</v>
+        <v>693</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -60283,7 +66518,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>637</v>
+        <v>694</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -60295,7 +66530,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>638</v>
+        <v>695</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -60309,7 +66544,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -60321,7 +66556,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -60335,7 +66570,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>641</v>
+        <v>698</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>22</v>
@@ -60349,7 +66584,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>23</v>
@@ -60363,7 +66598,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>643</v>
+        <v>700</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>24</v>
@@ -60377,7 +66612,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>644</v>
+        <v>701</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -60391,7 +66626,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>645</v>
+        <v>702</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>26</v>
@@ -60405,7 +66640,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>27</v>
@@ -60419,7 +66654,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>647</v>
+        <v>704</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>28</v>
@@ -60431,7 +66666,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>648</v>
+        <v>705</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>29</v>
@@ -60443,7 +66678,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>649</v>
+        <v>706</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>30</v>
@@ -60457,7 +66692,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>650</v>
+        <v>707</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>31</v>
@@ -60471,7 +66706,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>32</v>
@@ -60485,7 +66720,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>652</v>
+        <v>709</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>33</v>
@@ -60499,7 +66734,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>653</v>
+        <v>710</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>34</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="747">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -2019,6 +2019,114 @@
   </si>
   <si>
     <t xml:space="preserve">INCT17_20200320_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200320_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_001500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_011500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_021500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_031500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_043000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_174500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_181500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_191500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_201500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_211500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_221500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200323_231500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200327_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200327_171500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT17_20200331_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201109_013000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201109_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201109_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_000000</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -2507,12 +2615,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI887"/>
+  <dimension ref="A1:AI888"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A635" activeCellId="0" sqref="A635"/>
+      <selection pane="bottomLeft" activeCell="D639" activeCellId="0" sqref="D639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -65507,6 +65615,99 @@
       <c r="C603" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D603" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K603" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X603" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z603" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH603" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI603" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
@@ -65518,6 +65719,99 @@
       <c r="C604" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D604" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K604" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X604" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH604" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI604" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
@@ -65529,6 +65823,99 @@
       <c r="C605" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D605" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X605" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z605" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG605" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH605" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI605" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="s">
@@ -65540,6 +65927,99 @@
       <c r="C606" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D606" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K606" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L606" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N606" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X606" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z606" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG606" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH606" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI606" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="s">
@@ -65551,6 +66031,99 @@
       <c r="C607" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D607" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K607" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N607" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X607" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z607" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG607" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH607" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI607" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
@@ -65562,6 +66135,99 @@
       <c r="C608" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D608" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K608" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L608" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N608" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X608" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z608" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH608" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI608" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
@@ -65573,6 +66239,99 @@
       <c r="C609" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D609" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K609" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L609" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N609" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X609" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z609" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH609" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI609" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
@@ -65584,6 +66343,99 @@
       <c r="C610" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D610" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K610" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L610" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N610" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X610" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z610" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH610" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI610" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
@@ -65595,6 +66447,99 @@
       <c r="C611" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D611" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K611" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X611" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH611" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI611" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
@@ -65606,6 +66551,99 @@
       <c r="C612" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D612" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K612" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH612" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI612" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
@@ -65617,6 +66655,99 @@
       <c r="C613" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D613" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K613" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH613" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI613" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
@@ -65628,6 +66759,99 @@
       <c r="C614" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D614" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K614" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X614" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH614" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI614" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
@@ -65639,6 +66863,99 @@
       <c r="C615" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D615" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X615" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH615" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI615" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
@@ -65650,6 +66967,99 @@
       <c r="C616" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D616" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X616" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH616" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI616" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
@@ -65661,6 +67071,102 @@
       <c r="C617" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D617" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH617" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI617" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
@@ -65672,6 +67178,99 @@
       <c r="C618" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D618" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K618" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L618" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH618" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI618" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
@@ -65683,6 +67282,99 @@
       <c r="C619" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D619" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K619" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L619" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N619" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X619" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH619" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI619" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
@@ -65694,6 +67386,99 @@
       <c r="C620" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D620" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K620" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N620" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH620" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI620" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
@@ -65705,6 +67490,99 @@
       <c r="C621" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D621" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K621" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH621" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI621" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
@@ -65716,6 +67594,99 @@
       <c r="C622" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D622" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K622" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH622" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI622" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
@@ -65727,6 +67698,99 @@
       <c r="C623" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D623" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X623" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z623" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH623" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI623" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
@@ -65738,6 +67802,102 @@
       <c r="C624" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D624" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH624" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI624" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="s">
@@ -65749,6 +67909,99 @@
       <c r="C625" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D625" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K625" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH625" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI625" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="s">
@@ -65760,6 +68013,99 @@
       <c r="C626" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D626" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K626" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X626" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH626" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI626" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
@@ -65771,6 +68117,99 @@
       <c r="C627" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D627" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K627" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X627" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH627" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI627" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
@@ -65782,6 +68221,99 @@
       <c r="C628" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D628" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K628" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH628" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI628" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
@@ -65793,6 +68325,99 @@
       <c r="C629" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D629" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L629" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X629" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z629" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH629" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI629" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
@@ -65804,6 +68429,99 @@
       <c r="C630" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D630" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K630" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L630" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH630" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI630" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
@@ -65815,6 +68533,99 @@
       <c r="C631" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D631" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K631" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L631" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N631" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH631" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI631" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
@@ -65826,6 +68637,99 @@
       <c r="C632" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D632" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K632" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L632" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N632" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH632" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI632" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
@@ -65837,6 +68741,99 @@
       <c r="C633" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D633" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K633" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L633" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH633" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI633" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="s">
@@ -65848,10 +68845,486 @@
       <c r="C634" s="1" t="s">
         <v>407</v>
       </c>
+      <c r="D634" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K634" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L634" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH634" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI634" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="0"/>
+      <c r="B635" s="0"/>
+      <c r="C635" s="0"/>
+      <c r="D635" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z635" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH635" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI635" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D636" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L636" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T636" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH636" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI636" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D637" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T637" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH637" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI637" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D638" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T638" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X638" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z638" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE638" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH638" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI638" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
@@ -65874,20 +69347,20 @@
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="3" width="10.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -65895,23 +69368,23 @@
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -65949,10 +69422,10 @@
     </row>
     <row r="6" s="10" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -66025,10 +69498,10 @@
     </row>
     <row r="8" s="13" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -66069,7 +69542,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -66110,7 +69583,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -66151,7 +69624,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -66192,7 +69665,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -66265,10 +69738,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>36</v>
@@ -66310,7 +69783,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>7</v>
@@ -66355,7 +69828,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
@@ -66400,7 +69873,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -66412,7 +69885,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -66426,7 +69899,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
@@ -66440,7 +69913,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>12</v>
@@ -66454,7 +69927,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
@@ -66468,7 +69941,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -66482,7 +69955,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -66494,7 +69967,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>16</v>
@@ -66506,7 +69979,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -66518,7 +69991,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -66530,7 +70003,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -66544,7 +70017,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -66556,7 +70029,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -66570,7 +70043,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>22</v>
@@ -66584,7 +70057,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>23</v>
@@ -66598,7 +70071,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>24</v>
@@ -66612,7 +70085,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -66626,7 +70099,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>26</v>
@@ -66640,7 +70113,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>27</v>
@@ -66654,7 +70127,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>28</v>
@@ -66666,7 +70139,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>29</v>
@@ -66678,7 +70151,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>30</v>
@@ -66692,7 +70165,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>31</v>
@@ -66706,7 +70179,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>32</v>
@@ -66720,7 +70193,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>33</v>
@@ -66734,7 +70207,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>34</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="presença_espécies" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4033" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="756">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -2127,6 +2127,33 @@
   </si>
   <si>
     <t xml:space="preserve">S4A09810_20201110_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_170000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de trovão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201110_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído intenso de chuva</t>
   </si>
   <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
@@ -2617,10 +2644,10 @@
   </sheetPr>
   <dimension ref="A1:AI888"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A631" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D639" activeCellId="0" sqref="D639"/>
+      <selection pane="bottomLeft" activeCell="A646" activeCellId="0" sqref="A646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2628,7 +2655,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="1.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="0.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="1.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="1.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="2.07"/>
@@ -68940,9 +68967,15 @@
       </c>
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="0"/>
-      <c r="B635" s="0"/>
-      <c r="C635" s="0"/>
+      <c r="A635" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="D635" s="1" t="s">
         <v>698</v>
       </c>
@@ -69038,6 +69071,15 @@
       </c>
     </row>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="D636" s="1" t="s">
         <v>699</v>
       </c>
@@ -69133,6 +69175,15 @@
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="D637" s="1" t="s">
         <v>700</v>
       </c>
@@ -69228,6 +69279,15 @@
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="D638" s="1" t="s">
         <v>701</v>
       </c>
@@ -69320,6 +69380,946 @@
       </c>
       <c r="AI638" s="1" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA639" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH639" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI639" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X640" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA640" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF640" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH640" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI640" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K641" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L641" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M641" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X641" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z641" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG641" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH641" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI641" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K642" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L642" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N642" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P642" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T642" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X642" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z642" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB642" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE642" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG642" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH642" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI642" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K643" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N643" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T643" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X643" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z643" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB643" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE643" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG643" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH643" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI643" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K644" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N644" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T644" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z644" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB644" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE644" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG644" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH644" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI644" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="H645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH645" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI645" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -69343,11 +70343,11 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.15"/>
@@ -69357,10 +70357,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -69368,23 +70368,23 @@
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -69422,10 +70422,10 @@
     </row>
     <row r="6" s="10" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -69498,10 +70498,10 @@
     </row>
     <row r="8" s="13" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -69542,7 +70542,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -69583,7 +70583,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -69624,7 +70624,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -69665,7 +70665,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -69738,10 +70738,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>36</v>
@@ -69783,7 +70783,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>7</v>
@@ -69828,7 +70828,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
@@ -69873,7 +70873,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -69885,7 +70885,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -69899,7 +70899,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
@@ -69913,7 +70913,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>12</v>
@@ -69927,7 +70927,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
@@ -69941,7 +70941,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -69955,7 +70955,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -69967,7 +70967,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>16</v>
@@ -69979,7 +70979,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -69991,7 +70991,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -70003,7 +71003,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -70017,7 +71017,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -70029,7 +71029,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -70043,7 +71043,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>22</v>
@@ -70057,7 +71057,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>23</v>
@@ -70071,7 +71071,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>24</v>
@@ -70085,7 +71085,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -70099,7 +71099,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>26</v>
@@ -70113,7 +71113,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>27</v>
@@ -70127,7 +71127,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>28</v>
@@ -70139,7 +71139,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>29</v>
@@ -70151,7 +71151,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>30</v>
@@ -70165,7 +71165,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>31</v>
@@ -70179,7 +71179,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>32</v>
@@ -70193,7 +71193,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>33</v>
@@ -70207,7 +71207,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>34</v>

--- a/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
+++ b/presence_absence/Franco/planilha_anotacoes_INCT_Franco.xlsx
@@ -12,7 +12,7 @@
     <sheet name="CÓDIGOS" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">presença_espécies!$A$1:$AI$664</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">presença_espécies!$A$1:$AI$703</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4390" uniqueCount="810">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -2171,6 +2171,9 @@
     <t xml:space="preserve">S4A09810_20201114_211500</t>
   </si>
   <si>
+    <t xml:space="preserve">S4A09810_20201114_221500</t>
+  </si>
+  <si>
     <t xml:space="preserve">S4A09810_20201114_231500</t>
   </si>
   <si>
@@ -2201,6 +2204,123 @@
     <t xml:space="preserve">S4A09810_20201116_203000</t>
   </si>
   <si>
+    <t xml:space="preserve">S4A09810_20201116_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201116_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201116_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201121_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201122_023000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201122_033000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_003000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_173000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_183000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruído de cigarra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_193000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_203000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_213000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_223000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201123_233000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201126_040000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201127_170000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201127_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201127_190001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201127_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201127_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201127_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201127_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_030000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_170000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_180000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_190000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_200000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_210000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_220000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201128_230000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201129_000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201129_010000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201129_020000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4A09810_20201129_030000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dificuldade na identificação</t>
   </si>
   <si>
@@ -2247,6 +2367,9 @@
   </si>
   <si>
     <t xml:space="preserve">Preencher as siglas com as 3 primeiras letras do gênero seguido de "_" e as 3 primeiras letras do epíteto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCT18</t>
   </si>
   <si>
     <t xml:space="preserve">Scinax fuscomarginatus</t>
@@ -2712,12 +2835,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI888"/>
+  <dimension ref="A1:AI1386"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AI664" activeCellId="0" sqref="AI664"/>
+      <selection pane="bottomLeft" activeCell="B704" activeCellId="0" sqref="B704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -71111,7 +71234,7 @@
         <v>2</v>
       </c>
       <c r="M656" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N656" s="1" t="n">
         <v>3</v>
@@ -71168,13 +71291,13 @@
         <v>1</v>
       </c>
       <c r="AF656" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG656" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH656" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI656" s="1" t="n">
         <v>0</v>
@@ -71209,16 +71332,16 @@
         <v>0</v>
       </c>
       <c r="K657" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L657" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M657" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N657" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O657" s="1" t="n">
         <v>0</v>
@@ -71248,28 +71371,28 @@
         <v>0</v>
       </c>
       <c r="X657" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y657" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Z657" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA657" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AB657" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC657" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD657" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AE657" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF657" s="1" t="n">
         <v>0</v>
@@ -71278,7 +71401,7 @@
         <v>0</v>
       </c>
       <c r="AH657" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI657" s="1" t="n">
         <v>0</v>
@@ -71316,7 +71439,7 @@
         <v>1</v>
       </c>
       <c r="L658" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M658" s="1" t="n">
         <v>0</v>
@@ -71367,13 +71490,13 @@
         <v>0</v>
       </c>
       <c r="AC658" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD658" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AE658" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF658" s="1" t="n">
         <v>0</v>
@@ -71417,7 +71540,7 @@
         <v>0</v>
       </c>
       <c r="K659" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L659" s="1" t="n">
         <v>0</v>
@@ -71426,10 +71549,10 @@
         <v>0</v>
       </c>
       <c r="N659" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O659" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P659" s="1" t="n">
         <v>0</v>
@@ -71444,40 +71567,40 @@
         <v>0</v>
       </c>
       <c r="T659" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X659" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z659" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD659" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE659" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="U659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z659" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD659" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE659" s="1" t="n">
-        <v>2</v>
       </c>
       <c r="AF659" s="1" t="n">
         <v>0</v>
@@ -71533,7 +71656,7 @@
         <v>0</v>
       </c>
       <c r="O660" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P660" s="1" t="n">
         <v>0</v>
@@ -71613,10 +71736,7 @@
         <v>39</v>
       </c>
       <c r="F661" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G661" s="1" t="s">
-        <v>721</v>
+        <v>40</v>
       </c>
       <c r="H661" s="1" t="n">
         <v>0</v>
@@ -71655,7 +71775,7 @@
         <v>0</v>
       </c>
       <c r="T661" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U661" s="1" t="n">
         <v>0</v>
@@ -71673,7 +71793,7 @@
         <v>0</v>
       </c>
       <c r="Z661" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA661" s="1" t="n">
         <v>0</v>
@@ -71688,7 +71808,7 @@
         <v>0</v>
       </c>
       <c r="AE661" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF661" s="1" t="n">
         <v>0</v>
@@ -71714,13 +71834,16 @@
         <v>403</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E662" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F662" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="G662" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="H662" s="1" t="n">
         <v>0</v>
@@ -71759,7 +71882,7 @@
         <v>0</v>
       </c>
       <c r="T662" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U662" s="1" t="n">
         <v>0</v>
@@ -71777,7 +71900,7 @@
         <v>0</v>
       </c>
       <c r="Z662" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA662" s="1" t="n">
         <v>0</v>
@@ -71792,7 +71915,7 @@
         <v>0</v>
       </c>
       <c r="AE662" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF662" s="1" t="n">
         <v>0</v>
@@ -71836,13 +71959,13 @@
         <v>0</v>
       </c>
       <c r="K663" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L663" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M663" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N663" s="1" t="n">
         <v>0</v>
@@ -71863,7 +71986,7 @@
         <v>0</v>
       </c>
       <c r="T663" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U663" s="1" t="n">
         <v>0</v>
@@ -71899,7 +72022,7 @@
         <v>1</v>
       </c>
       <c r="AF663" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG663" s="1" t="n">
         <v>0</v>
@@ -71940,16 +72063,16 @@
         <v>0</v>
       </c>
       <c r="K664" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L664" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M664" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N664" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O664" s="1" t="n">
         <v>0</v>
@@ -71967,7 +72090,7 @@
         <v>0</v>
       </c>
       <c r="T664" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U664" s="1" t="n">
         <v>0</v>
@@ -72025,6 +72148,99 @@
       <c r="C665" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D665" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F665" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K665" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L665" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M665" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N665" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T665" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z665" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE665" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF665" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH665" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI665" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
@@ -72036,6 +72252,99 @@
       <c r="C666" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D666" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F666" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K666" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L666" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M666" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N666" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T666" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z666" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE666" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH666" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI666" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
@@ -72047,6 +72356,99 @@
       <c r="C667" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D667" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K667" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L667" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N667" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T667" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z667" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB667" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE667" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH667" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI667" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
@@ -72058,6 +72460,99 @@
       <c r="C668" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D668" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K668" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L668" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N668" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T668" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z668" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE668" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH668" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI668" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
@@ -72069,6 +72564,99 @@
       <c r="C669" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D669" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T669" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X669" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH669" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI669" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
@@ -72080,6 +72668,99 @@
       <c r="C670" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D670" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F670" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T670" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z670" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE670" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH670" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI670" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
@@ -72091,6 +72772,99 @@
       <c r="C671" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D671" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F671" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T671" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z671" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH671" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI671" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
@@ -72102,6 +72876,99 @@
       <c r="C672" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D672" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F672" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T672" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE672" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH672" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI672" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
@@ -72113,6 +72980,99 @@
       <c r="C673" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D673" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F673" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T673" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF673" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH673" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI673" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
@@ -72124,6 +73084,99 @@
       <c r="C674" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D674" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E674" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F674" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X674" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH674" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI674" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
@@ -72135,6 +73188,102 @@
       <c r="C675" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D675" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F675" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G675" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF675" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH675" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI675" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
@@ -72146,6 +73295,99 @@
       <c r="C676" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D676" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE676" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH676" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI676" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
@@ -72157,6 +73399,99 @@
       <c r="C677" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D677" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K677" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M677" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z677" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB677" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE677" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF677" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH677" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI677" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
@@ -72168,6 +73503,99 @@
       <c r="C678" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D678" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K678" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N678" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T678" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z678" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH678" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI678" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="s">
@@ -72179,6 +73607,99 @@
       <c r="C679" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D679" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T679" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z679" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH679" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI679" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="s">
@@ -72190,6 +73711,99 @@
       <c r="C680" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D680" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N680" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T680" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z680" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH680" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI680" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="s">
@@ -72201,6 +73815,99 @@
       <c r="C681" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D681" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T681" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z681" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH681" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI681" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
@@ -72212,12 +73919,2424 @@
       <c r="C682" s="1" t="s">
         <v>403</v>
       </c>
+      <c r="D682" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH682" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI682" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
+    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z683" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH683" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI683" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L684" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH684" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI684" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K685" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M685" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH685" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI685" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M686" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T686" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB686" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF686" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH686" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI686" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K687" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M687" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N687" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH687" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI687" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E688" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K688" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M688" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N688" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T688" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH688" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI688" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M689" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T689" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH689" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI689" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M690" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T690" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X690" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH690" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI690" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M691" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH691" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI691" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T692" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE692" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH692" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI692" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E693" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH693" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI693" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z694" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA694" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH694" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI694" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M695" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T695" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF695" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH695" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI695" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K696" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M696" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N696" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z696" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB696" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF696" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH696" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI696" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K697" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M697" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N697" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z697" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF697" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH697" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI697" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M698" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF698" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH698" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI698" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N699" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH699" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI699" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB700" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH700" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI700" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M701" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH701" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI701" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH702" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI702" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I703" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH703" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI703" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AI664"/>
+  <autoFilter ref="A1:AI703"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -72236,8 +76355,8 @@
   </sheetPr>
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -72250,10 +76369,10 @@
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -72261,23 +76380,23 @@
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>729</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -72318,7 +76437,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>732</v>
+        <v>772</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -72391,10 +76510,10 @@
     </row>
     <row r="8" s="13" customFormat="true" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>733</v>
+        <v>773</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>734</v>
+        <v>774</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -72435,7 +76554,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>735</v>
+        <v>775</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -72476,7 +76595,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>736</v>
+        <v>776</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -72517,7 +76636,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>737</v>
+        <v>777</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -72558,7 +76677,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>738</v>
+        <v>778</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -72631,10 +76750,10 @@
     </row>
     <row r="14" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>36</v>
@@ -72642,7 +76761,9 @@
       <c r="D14" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="20" t="s">
+        <v>781</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -72676,7 +76797,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>741</v>
+        <v>782</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>7</v>
@@ -72687,7 +76808,7 @@
       <c r="D15" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -72721,7 +76842,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>742</v>
+        <v>783</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>8</v>
@@ -72732,7 +76853,7 @@
       <c r="D16" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -72766,7 +76887,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>9</v>
@@ -72774,11 +76895,14 @@
       <c r="C17" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>10</v>
@@ -72789,10 +76913,11 @@
       <c r="D18" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>11</v>
@@ -72803,10 +76928,11 @@
       <c r="D19" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>746</v>
+        <v>787</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>12</v>
@@ -72817,10 +76943,11 @@
       <c r="D20" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>13</v>
@@ -72831,10 +76958,11 @@
       <c r="D21" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>14</v>
@@ -72845,10 +76973,11 @@
       <c r="D22" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>15</v>
@@ -72856,11 +76985,14 @@
       <c r="C23" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>750</v>
+        <v>791</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>16</v>
@@ -72868,11 +77000,14 @@
       <c r="C24" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="24" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>17</v>
@@ -72880,11 +77015,14 @@
       <c r="C25" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>752</v>
+        <v>793</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>18</v>
@@ -72892,11 +77030,14 @@
       <c r="C26" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>753</v>
+        <v>794</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>19</v>
@@ -72907,10 +77048,11 @@
       <c r="D27" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="B28" s="25" t="s">
         <v>20</v>
@@ -72918,11 +77060,14 @@
       <c r="C28" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>755</v>
+        <v>796</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>21</v>
@@ -72933,10 +77078,11 @@
       <c r="D29" s="23" t="n">
         <v>0</v>
       </c>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>756</v>
+        <v>797</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>22</v>
@@ -72947,10 +77093,11 @@
       <c r="D30" s="23" t="n">
         <v>0</v>
       </c>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>757</v>
+        <v>798</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>23</v>
@@ -72961,10 +77108,11 @@
       <c r="D31" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>758</v>
+        <v>799</v>
       </c>
       <c r="B32" s="25" t="s">
         <v>24</v>
@@ -72975,10 +77123,11 @@
       <c r="D32" s="23" t="n">
         <v>0</v>
       </c>
+      <c r="E32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>25</v>
@@ -72989,10 +77138,11 @@
       <c r="D33" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>760</v>
+        <v>801</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>26</v>
@@ -73003,10 +77153,11 @@
       <c r="D34" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>27</v>
@@ -73017,10 +77168,11 @@
       <c r="D35" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>28</v>
@@ -73031,10 +77183,11 @@
       <c r="D36" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>29</v>
@@ -73042,11 +77195,14 @@
       <c r="C37" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="23"/>
+      <c r="D37" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>30</v>
@@ -73057,10 +77213,11 @@
       <c r="D38" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>31</v>
@@ -73071,10 +77228,11 @@
       <c r="D39" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>32</v>
@@ -73085,10 +77243,11 @@
       <c r="D40" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>33</v>
@@ -73099,10 +77258,11 @@
       <c r="D41" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>34</v>
@@ -73113,150 +77273,175 @@
       <c r="D42" s="23" t="n">
         <v>1</v>
       </c>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="27"/>
       <c r="B43" s="27"/>
       <c r="C43" s="22"/>
       <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="27"/>
       <c r="B44" s="27"/>
       <c r="C44" s="22"/>
       <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="22"/>
       <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28"/>
       <c r="B46" s="28"/>
       <c r="C46" s="22"/>
       <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="22"/>
       <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28"/>
       <c r="B48" s="28"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28"/>
       <c r="B49" s="28"/>
       <c r="C49" s="22"/>
       <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28"/>
       <c r="B50" s="28"/>
       <c r="C50" s="22"/>
       <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28"/>
       <c r="B51" s="28"/>
       <c r="C51" s="22"/>
       <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28"/>
       <c r="B52" s="28"/>
       <c r="C52" s="22"/>
       <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28"/>
       <c r="B53" s="28"/>
       <c r="C53" s="22"/>
       <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="28"/>
       <c r="B54" s="28"/>
       <c r="C54" s="22"/>
       <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="28"/>
       <c r="B55" s="28"/>
       <c r="C55" s="22"/>
       <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="28"/>
       <c r="B56" s="28"/>
       <c r="C56" s="22"/>
       <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28"/>
       <c r="B57" s="28"/>
       <c r="C57" s="22"/>
       <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="22"/>
       <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28"/>
       <c r="B59" s="28"/>
       <c r="C59" s="22"/>
       <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28"/>
       <c r="B60" s="28"/>
       <c r="C60" s="22"/>
       <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28"/>
       <c r="B61" s="28"/>
       <c r="C61" s="22"/>
       <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28"/>
       <c r="B62" s="28"/>
       <c r="C62" s="22"/>
       <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28"/>
       <c r="B63" s="28"/>
       <c r="C63" s="22"/>
       <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="22"/>
       <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28"/>
       <c r="B65" s="28"/>
       <c r="C65" s="22"/>
       <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28"/>
       <c r="B66" s="28"/>
       <c r="C66" s="22"/>
       <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
